--- a/data/532/HKSE/Hang Seng Index - Monthly.xlsx
+++ b/data/532/HKSE/Hang Seng Index - Monthly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XF2"/>
+  <dimension ref="A1:XG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3504,15 +3504,20 @@
       </c>
       <c r="XD1" s="1" t="inlineStr">
         <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="XE1" s="1" t="inlineStr">
+      <c r="XF1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="XF1" s="1" t="inlineStr">
+      <c r="XG1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -5400,19 +5405,22 @@
         <v>22713.02</v>
       </c>
       <c r="XC2" t="n">
-        <v>21890</v>
-      </c>
-      <c r="XD2" t="inlineStr">
+        <v>21996.85</v>
+      </c>
+      <c r="XD2" t="n">
+        <v>20503</v>
+      </c>
+      <c r="XE2" t="inlineStr">
         <is>
           <t>HSI</t>
         </is>
       </c>
-      <c r="XE2" t="inlineStr">
+      <c r="XF2" t="inlineStr">
         <is>
           <t>Hang Seng Index, Close Price</t>
         </is>
       </c>
-      <c r="XF2" t="inlineStr">
+      <c r="XG2" t="inlineStr">
         <is>
           <t>Index: 1964.07.31=100</t>
         </is>
